--- a/paper_data/ATI_engineered_features.xlsx
+++ b/paper_data/ATI_engineered_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5326694\OneDrive - UNSW\Desktop\PhD\PhD papers\light intensity paper\paper_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5326694\OneDrive - UNSW\Desktop\PhD\PhD papers\light intensity paper\paper_code\paper_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52042146-A204-44AC-877B-77593B51CAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DE46B7-098B-4A55-8F72-1EB15BFF89AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="1940" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,6 +165,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -511,12 +512,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1176,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B21A33C-CF85-4768-A067-A61EABC47167}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
